--- a/LISTADO_PEDIDO_COMPRAS/OLD/data/input/CLASIFICACION_ABC+D_FITOS.xlsx
+++ b/LISTADO_PEDIDO_COMPRAS/OLD/data/input/CLASIFICACION_ABC+D_FITOS.xlsx
@@ -4806,45 +4806,37 @@
     <row r="51">
       <c r="A51" s="3" t="inlineStr">
         <is>
-          <t>3403010001</t>
+          <t>3902080001</t>
         </is>
       </c>
       <c r="B51" s="3" t="inlineStr">
         <is>
-          <t>ABONO CESPED BOLSA</t>
-        </is>
-      </c>
-      <c r="C51" s="3" t="inlineStr">
-        <is>
-          <t>2KG</t>
-        </is>
-      </c>
-      <c r="D51" s="3" t="inlineStr">
-        <is>
-          <t>UNICO</t>
-        </is>
-      </c>
+          <t>BARRERA INSECTOS 1L</t>
+        </is>
+      </c>
+      <c r="C51" s="3" t="inlineStr"/>
+      <c r="D51" s="3" t="inlineStr"/>
       <c r="E51" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F51" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G51" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H51" s="4" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I51" s="4" t="n">
-        <v>129.35</v>
+        <v>131.45</v>
       </c>
       <c r="J51" s="4" t="n">
-        <v>49.7</v>
+        <v>51.44</v>
       </c>
       <c r="K51" s="4" t="n">
         <v>0</v>
@@ -4853,16 +4845,16 @@
         <v>0</v>
       </c>
       <c r="M51" s="5" t="n">
-        <v>6.4</v>
+        <v>5.4</v>
       </c>
       <c r="N51" s="5" t="n">
-        <v>19.1</v>
+        <v>16.1</v>
       </c>
       <c r="O51" s="4" t="n">
-        <v>-13</v>
+        <v>-11</v>
       </c>
       <c r="P51" s="4" t="n">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Q51" s="4" t="n">
         <v>0</v>
@@ -4880,7 +4872,7 @@
       </c>
       <c r="U51" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -13 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -11 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V51" s="4" t="inlineStr">
@@ -4897,37 +4889,45 @@
     <row r="52">
       <c r="A52" s="3" t="inlineStr">
         <is>
-          <t>3902080001</t>
+          <t>3403010001</t>
         </is>
       </c>
       <c r="B52" s="3" t="inlineStr">
         <is>
-          <t>BARRERA INSECTOS 1L</t>
-        </is>
-      </c>
-      <c r="C52" s="3" t="inlineStr"/>
-      <c r="D52" s="3" t="inlineStr"/>
+          <t>ABONO CESPED BOLSA</t>
+        </is>
+      </c>
+      <c r="C52" s="3" t="inlineStr">
+        <is>
+          <t>2KG</t>
+        </is>
+      </c>
+      <c r="D52" s="3" t="inlineStr">
+        <is>
+          <t>UNICO</t>
+        </is>
+      </c>
       <c r="E52" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F52" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G52" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H52" s="4" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="I52" s="4" t="n">
-        <v>131.45</v>
+        <v>129.35</v>
       </c>
       <c r="J52" s="4" t="n">
-        <v>51.44</v>
+        <v>49.7</v>
       </c>
       <c r="K52" s="4" t="n">
         <v>0</v>
@@ -4936,16 +4936,16 @@
         <v>0</v>
       </c>
       <c r="M52" s="5" t="n">
-        <v>5.4</v>
+        <v>6.4</v>
       </c>
       <c r="N52" s="5" t="n">
-        <v>16.1</v>
+        <v>19.1</v>
       </c>
       <c r="O52" s="4" t="n">
-        <v>-11</v>
+        <v>-13</v>
       </c>
       <c r="P52" s="4" t="n">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Q52" s="4" t="n">
         <v>0</v>
@@ -4963,7 +4963,7 @@
       </c>
       <c r="U52" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -11 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -13 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V52" s="4" t="inlineStr">
@@ -5984,12 +5984,12 @@
     <row r="65">
       <c r="A65" s="3" t="inlineStr">
         <is>
-          <t>3302200022</t>
+          <t>3302080002</t>
         </is>
       </c>
       <c r="B65" s="3" t="inlineStr">
         <is>
-          <t>COMPO TURBO RAICES 50GR</t>
+          <t>ABONO LIQUIDO GERANIOS 1300ML</t>
         </is>
       </c>
       <c r="C65" s="3" t="inlineStr"/>
@@ -6008,71 +6008,71 @@
         <v>90</v>
       </c>
       <c r="H65" s="4" t="n">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="I65" s="4" t="n">
-        <v>99.34999999999999</v>
+        <v>107.86</v>
       </c>
       <c r="J65" s="4" t="n">
-        <v>33.11</v>
+        <v>40.14</v>
       </c>
       <c r="K65" s="4" t="n">
-        <v>83.33</v>
+        <v>0</v>
       </c>
       <c r="L65" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M65" s="5" t="n">
-        <v>12.2</v>
+        <v>6.8</v>
       </c>
       <c r="N65" s="5" t="n">
-        <v>36.7</v>
+        <v>20.5</v>
       </c>
       <c r="O65" s="4" t="n">
-        <v>5</v>
+        <v>-14</v>
       </c>
       <c r="P65" s="4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Q65" s="4" t="n">
-        <v>78</v>
+        <v>0</v>
       </c>
       <c r="R65" s="4" t="n">
-        <v>86.67</v>
+        <v>0</v>
       </c>
       <c r="S65" s="5" t="n">
-        <v>10</v>
-      </c>
-      <c r="T65" s="7" t="inlineStr">
-        <is>
-          <t>Medio</t>
+        <v>0</v>
+      </c>
+      <c r="T65" s="6" t="inlineStr">
+        <is>
+          <t>Bajo</t>
         </is>
       </c>
       <c r="U65" s="3" t="inlineStr">
         <is>
-          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -14 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V65" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/03/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W65" s="4" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>12</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" s="3" t="inlineStr">
         <is>
-          <t>3302080002</t>
+          <t>3302200022</t>
         </is>
       </c>
       <c r="B66" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO GERANIOS 1300ML</t>
+          <t>COMPO TURBO RAICES 50GR</t>
         </is>
       </c>
       <c r="C66" s="3" t="inlineStr"/>
@@ -6091,59 +6091,59 @@
         <v>90</v>
       </c>
       <c r="H66" s="4" t="n">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="I66" s="4" t="n">
-        <v>107.86</v>
+        <v>99.34999999999999</v>
       </c>
       <c r="J66" s="4" t="n">
-        <v>40.14</v>
+        <v>33.11</v>
       </c>
       <c r="K66" s="4" t="n">
-        <v>0</v>
+        <v>83.33</v>
       </c>
       <c r="L66" s="4" t="n">
         <v>0</v>
       </c>
       <c r="M66" s="5" t="n">
-        <v>6.8</v>
+        <v>12.2</v>
       </c>
       <c r="N66" s="5" t="n">
-        <v>20.5</v>
+        <v>36.7</v>
       </c>
       <c r="O66" s="4" t="n">
-        <v>-14</v>
+        <v>5</v>
       </c>
       <c r="P66" s="4" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="Q66" s="4" t="n">
-        <v>0</v>
+        <v>78</v>
       </c>
       <c r="R66" s="4" t="n">
-        <v>0</v>
+        <v>86.67</v>
       </c>
       <c r="S66" s="5" t="n">
-        <v>0</v>
-      </c>
-      <c r="T66" s="6" t="inlineStr">
-        <is>
-          <t>Bajo</t>
+        <v>10</v>
+      </c>
+      <c r="T66" s="7" t="inlineStr">
+        <is>
+          <t>Medio</t>
         </is>
       </c>
       <c r="U66" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -14 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>REPOSICIÓN SELECTIVA: Aumentar compras 15% para evitar ruptura de stock. Aplicar descuento 5% para consolidar demanda.</t>
         </is>
       </c>
       <c r="V66" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 14/03/2025</t>
         </is>
       </c>
       <c r="W66" s="4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>11</t>
         </is>
       </c>
     </row>
@@ -11788,24 +11788,24 @@
     <row r="37">
       <c r="A37" s="3" t="inlineStr">
         <is>
-          <t>3501040001</t>
+          <t>3302070001</t>
         </is>
       </c>
       <c r="B37" s="3" t="inlineStr">
         <is>
-          <t>INSECTICIDA PULGONES 10ML</t>
+          <t>ABONO GERANIOS 750GR</t>
         </is>
       </c>
       <c r="C37" s="3" t="inlineStr"/>
       <c r="D37" s="3" t="inlineStr"/>
       <c r="E37" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F37" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G37" s="4" t="n">
@@ -11815,10 +11815,10 @@
         <v>4</v>
       </c>
       <c r="I37" s="4" t="n">
-        <v>47.8</v>
+        <v>35.96</v>
       </c>
       <c r="J37" s="4" t="n">
-        <v>19.58</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="K37" s="4" t="n">
         <v>0</v>
@@ -11836,7 +11836,7 @@
         <v>-4</v>
       </c>
       <c r="P37" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q37" s="4" t="n">
         <v>0</v>
@@ -11871,24 +11871,24 @@
     <row r="38">
       <c r="A38" s="3" t="inlineStr">
         <is>
-          <t>3302070001</t>
+          <t>3501040001</t>
         </is>
       </c>
       <c r="B38" s="3" t="inlineStr">
         <is>
-          <t>ABONO GERANIOS 750GR</t>
+          <t>INSECTICIDA PULGONES 10ML</t>
         </is>
       </c>
       <c r="C38" s="3" t="inlineStr"/>
       <c r="D38" s="3" t="inlineStr"/>
       <c r="E38" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F38" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G38" s="4" t="n">
@@ -11898,10 +11898,10 @@
         <v>4</v>
       </c>
       <c r="I38" s="4" t="n">
-        <v>35.96</v>
+        <v>47.8</v>
       </c>
       <c r="J38" s="4" t="n">
-        <v>9.800000000000001</v>
+        <v>19.58</v>
       </c>
       <c r="K38" s="4" t="n">
         <v>0</v>
@@ -11919,7 +11919,7 @@
         <v>-4</v>
       </c>
       <c r="P38" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q38" s="4" t="n">
         <v>0</v>
@@ -12618,37 +12618,37 @@
     <row r="47">
       <c r="A47" s="3" t="inlineStr">
         <is>
-          <t>3901140001</t>
+          <t>3302120001</t>
         </is>
       </c>
       <c r="B47" s="3" t="inlineStr">
         <is>
-          <t>ECO-STOP CUCANOR 750ML</t>
+          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
         </is>
       </c>
       <c r="C47" s="3" t="inlineStr"/>
       <c r="D47" s="3" t="inlineStr"/>
       <c r="E47" s="4" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F47" s="4" t="inlineStr">
         <is>
-          <t>ANTI-PLAGAS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G47" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H47" s="4" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="I47" s="4" t="n">
-        <v>43.8</v>
+        <v>42.45</v>
       </c>
       <c r="J47" s="4" t="n">
-        <v>18.1</v>
+        <v>16.98</v>
       </c>
       <c r="K47" s="4" t="n">
         <v>0</v>
@@ -12657,16 +12657,16 @@
         <v>0</v>
       </c>
       <c r="M47" s="5" t="n">
-        <v>2</v>
+        <v>2.4</v>
       </c>
       <c r="N47" s="5" t="n">
-        <v>5.9</v>
+        <v>7.3</v>
       </c>
       <c r="O47" s="4" t="n">
-        <v>-4</v>
+        <v>-5</v>
       </c>
       <c r="P47" s="4" t="n">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="Q47" s="4" t="n">
         <v>0</v>
@@ -12684,7 +12684,7 @@
       </c>
       <c r="U47" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V47" s="4" t="inlineStr">
@@ -12701,37 +12701,37 @@
     <row r="48">
       <c r="A48" s="3" t="inlineStr">
         <is>
-          <t>3302120001</t>
+          <t>3901140001</t>
         </is>
       </c>
       <c r="B48" s="3" t="inlineStr">
         <is>
-          <t>ABONO LIQUIDO FRESALES Y FRUTOS ROJOS 500ML</t>
+          <t>ECO-STOP CUCANOR 750ML</t>
         </is>
       </c>
       <c r="C48" s="3" t="inlineStr"/>
       <c r="D48" s="3" t="inlineStr"/>
       <c r="E48" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>39</t>
         </is>
       </c>
       <c r="F48" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>ANTI-PLAGAS</t>
         </is>
       </c>
       <c r="G48" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H48" s="4" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="I48" s="4" t="n">
-        <v>42.45</v>
+        <v>43.8</v>
       </c>
       <c r="J48" s="4" t="n">
-        <v>16.98</v>
+        <v>18.1</v>
       </c>
       <c r="K48" s="4" t="n">
         <v>0</v>
@@ -12740,16 +12740,16 @@
         <v>0</v>
       </c>
       <c r="M48" s="5" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="N48" s="5" t="n">
-        <v>7.3</v>
+        <v>5.9</v>
       </c>
       <c r="O48" s="4" t="n">
-        <v>-5</v>
+        <v>-4</v>
       </c>
       <c r="P48" s="4" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Q48" s="4" t="n">
         <v>0</v>
@@ -12767,7 +12767,7 @@
       </c>
       <c r="U48" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -5 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V48" s="4" t="inlineStr">
@@ -14623,7 +14623,7 @@
       </c>
       <c r="B71" s="3" t="inlineStr">
         <is>
-          <t>ABONO HORTENSIAS 800GR</t>
+          <t>ABONO HORTENSIAS 1KG</t>
         </is>
       </c>
       <c r="C71" s="3" t="inlineStr"/>
@@ -14651,7 +14651,7 @@
         <v>8.1</v>
       </c>
       <c r="K71" s="4" t="n">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="L71" s="4" t="n">
         <v>0</v>
@@ -14663,16 +14663,16 @@
         <v>4.4</v>
       </c>
       <c r="O71" s="4" t="n">
-        <v>7</v>
+        <v>-3</v>
       </c>
       <c r="P71" s="4" t="n">
-        <v>14</v>
+        <v>62</v>
       </c>
       <c r="Q71" s="4" t="n">
-        <v>57</v>
+        <v>0</v>
       </c>
       <c r="R71" s="4" t="n">
-        <v>63.33</v>
+        <v>0</v>
       </c>
       <c r="S71" s="5" t="n">
         <v>0</v>
@@ -14684,17 +14684,17 @@
       </c>
       <c r="U71" s="3" t="inlineStr">
         <is>
-          <t>MANTENER + GESTIÓN ACTIVA: Stock fresco de calidad. Reducir compras 15% próxima temporada. Stock actual suficiente para 214 días.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 20% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Maximizar disponibilidad.</t>
         </is>
       </c>
       <c r="V71" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/04/2025</t>
+          <t>Sin stock</t>
         </is>
       </c>
       <c r="W71" s="4" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>12</t>
         </is>
       </c>
     </row>
@@ -14869,7 +14869,7 @@
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>ABONO HORTENSIAS 1KG</t>
+          <t>ABONO HORTENSIAS 800GR</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
@@ -14897,7 +14897,7 @@
         <v>8.1</v>
       </c>
       <c r="K2" s="4" t="n">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="L2" s="4" t="n">
         <v>0</v>
@@ -14909,16 +14909,16 @@
         <v>4.4</v>
       </c>
       <c r="O2" s="4" t="n">
-        <v>-3</v>
+        <v>7</v>
       </c>
       <c r="P2" s="4" t="n">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="Q2" s="4" t="n">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="R2" s="4" t="n">
-        <v>0</v>
+        <v>63.33</v>
       </c>
       <c r="S2" s="5" t="n">
         <v>0</v>
@@ -14930,17 +14930,17 @@
       </c>
       <c r="U2" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>MANTENER SIN DESCUENTO: Stock fresco de calidad. Reducir compras 25% próxima temporada. Stock actual suficiente para 214 días.</t>
         </is>
       </c>
       <c r="V2" s="4" t="inlineStr">
         <is>
-          <t>Sin stock</t>
+          <t>Compra 04/04/2025</t>
         </is>
       </c>
       <c r="W2" s="4" t="inlineStr">
         <is>
-          <t>25</t>
+          <t>17</t>
         </is>
       </c>
     </row>
@@ -16034,37 +16034,37 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>3601050007</t>
+          <t>3302200025</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
+          <t>VARITAS PLANTAS VERDES 30 ST</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>36</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I16" s="4" t="n">
-        <v>25.5</v>
+        <v>23</v>
       </c>
       <c r="J16" s="4" t="n">
-        <v>10.27</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="K16" s="4" t="n">
         <v>0</v>
@@ -16073,16 +16073,16 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>1.5</v>
+        <v>2</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>4.4</v>
+        <v>5.9</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>-3</v>
+        <v>-4</v>
       </c>
       <c r="P16" s="4" t="n">
-        <v>10</v>
+        <v>47</v>
       </c>
       <c r="Q16" s="4" t="n">
         <v>0</v>
@@ -16100,7 +16100,7 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
@@ -16117,37 +16117,37 @@
     <row r="17">
       <c r="A17" s="3" t="inlineStr">
         <is>
-          <t>3302200025</t>
+          <t>3601050007</t>
         </is>
       </c>
       <c r="B17" s="3" t="inlineStr">
         <is>
-          <t>VARITAS PLANTAS VERDES 30 ST</t>
+          <t>VITHAL LIMPIA MELAZAS 750ML JABON NEGRO</t>
         </is>
       </c>
       <c r="C17" s="3" t="inlineStr"/>
       <c r="D17" s="3" t="inlineStr"/>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>36</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIO NATURAL</t>
         </is>
       </c>
       <c r="G17" s="4" t="n">
         <v>90</v>
       </c>
       <c r="H17" s="4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="I17" s="4" t="n">
-        <v>23</v>
+        <v>25.5</v>
       </c>
       <c r="J17" s="4" t="n">
-        <v>8.210000000000001</v>
+        <v>10.27</v>
       </c>
       <c r="K17" s="4" t="n">
         <v>0</v>
@@ -16156,16 +16156,16 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>2</v>
+        <v>1.5</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>5.9</v>
+        <v>4.4</v>
       </c>
       <c r="O17" s="4" t="n">
-        <v>-4</v>
+        <v>-3</v>
       </c>
       <c r="P17" s="4" t="n">
-        <v>47</v>
+        <v>10</v>
       </c>
       <c r="Q17" s="4" t="n">
         <v>0</v>
@@ -16183,7 +16183,7 @@
       </c>
       <c r="U17" s="3" t="inlineStr">
         <is>
-          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -4 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
+          <t>AUMENTAR STOCK: Producto de alto interés. Incrementar compras 30% próxima temporada. Stock actual: -3 unidades. Stock objetivo: 1 unidades. Alta rotación confirmada.</t>
         </is>
       </c>
       <c r="V17" s="4" t="inlineStr">
@@ -20470,24 +20470,24 @@
     <row r="2">
       <c r="A2" s="3" t="inlineStr">
         <is>
-          <t>3302210008</t>
+          <t>3502020004</t>
         </is>
       </c>
       <c r="B2" s="3" t="inlineStr">
         <is>
-          <t>FERTILIZANTE ORQUIDEAS 250ML</t>
+          <t>COMPO BIO FUNGICIDA STOP 750ML</t>
         </is>
       </c>
       <c r="C2" s="3" t="inlineStr"/>
       <c r="D2" s="3" t="inlineStr"/>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G2" s="4" t="n">
@@ -20636,24 +20636,24 @@
     <row r="4">
       <c r="A4" s="3" t="inlineStr">
         <is>
-          <t>3501100016</t>
+          <t>3402050002</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
+          <t>BRILLO PLANTA NATURAL 800ML</t>
         </is>
       </c>
       <c r="C4" s="3" t="inlineStr"/>
       <c r="D4" s="3" t="inlineStr"/>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>34</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONO NATURAL</t>
         </is>
       </c>
       <c r="G4" s="4" t="n">
@@ -20672,7 +20672,7 @@
         <v>0</v>
       </c>
       <c r="L4" s="4" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="M4" s="5" t="n">
         <v>0</v>
@@ -20681,7 +20681,7 @@
         <v>0</v>
       </c>
       <c r="O4" s="4" t="n">
-        <v>80</v>
+        <v>15</v>
       </c>
       <c r="P4" s="4" t="n">
         <v>92</v>
@@ -20702,7 +20702,7 @@
       </c>
       <c r="U4" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.52€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 45.88€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V4" s="4" t="inlineStr">
@@ -20719,12 +20719,12 @@
     <row r="5">
       <c r="A5" s="3" t="inlineStr">
         <is>
-          <t>3501100021</t>
+          <t>3501100022</t>
         </is>
       </c>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>YNJECT GO PINO (NO VENTA)</t>
+          <t>YNJECT GO PALMERAS (NO VENTA)</t>
         </is>
       </c>
       <c r="C5" s="3" t="inlineStr"/>
@@ -20755,7 +20755,7 @@
         <v>0</v>
       </c>
       <c r="L5" s="4" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="M5" s="5" t="n">
         <v>0</v>
@@ -20764,7 +20764,7 @@
         <v>0</v>
       </c>
       <c r="O5" s="4" t="n">
-        <v>16</v>
+        <v>72</v>
       </c>
       <c r="P5" s="4" t="n">
         <v>92</v>
@@ -20785,7 +20785,7 @@
       </c>
       <c r="U5" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 211.68€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V5" s="4" t="inlineStr">
@@ -20802,24 +20802,24 @@
     <row r="6">
       <c r="A6" s="3" t="inlineStr">
         <is>
-          <t>3402050002</t>
+          <t>3302210022</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
         <is>
-          <t>BRILLO PLANTA NATURAL 800ML</t>
+          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
         </is>
       </c>
       <c r="C6" s="3" t="inlineStr"/>
       <c r="D6" s="3" t="inlineStr"/>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>34</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>ABONO NATURAL</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G6" s="4" t="n">
@@ -20838,7 +20838,7 @@
         <v>0</v>
       </c>
       <c r="L6" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="M6" s="5" t="n">
         <v>0</v>
@@ -20847,7 +20847,7 @@
         <v>0</v>
       </c>
       <c r="O6" s="4" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="P6" s="4" t="n">
         <v>92</v>
@@ -20868,7 +20868,7 @@
       </c>
       <c r="U6" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 45.88€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V6" s="4" t="inlineStr">
@@ -20885,24 +20885,24 @@
     <row r="7">
       <c r="A7" s="3" t="inlineStr">
         <is>
-          <t>3501100015</t>
+          <t>3301040006</t>
         </is>
       </c>
       <c r="B7" s="3" t="inlineStr">
         <is>
-          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
+          <t>COMPO BIO FERTILIZANTE AQUA DEPOT 1L</t>
         </is>
       </c>
       <c r="C7" s="3" t="inlineStr"/>
       <c r="D7" s="3" t="inlineStr"/>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G7" s="4" t="n">
@@ -20921,7 +20921,7 @@
         <v>0</v>
       </c>
       <c r="L7" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="M7" s="5" t="n">
         <v>0</v>
@@ -20930,19 +20930,19 @@
         <v>0</v>
       </c>
       <c r="O7" s="4" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="P7" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q7" s="4" t="n">
-        <v>92</v>
+        <v>78</v>
       </c>
       <c r="R7" s="4" t="n">
-        <v>102.22</v>
+        <v>86.67</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="T7" s="9" t="inlineStr">
         <is>
@@ -20951,12 +20951,12 @@
       </c>
       <c r="U7" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.88€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V7" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 14/03/2025</t>
         </is>
       </c>
       <c r="W7" s="4" t="inlineStr">
@@ -20968,24 +20968,24 @@
     <row r="8">
       <c r="A8" s="3" t="inlineStr">
         <is>
-          <t>3301080002</t>
+          <t>3501100021</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>COMPO REVIT ORQUIDEA MONODOSIS 5X30ML</t>
+          <t>YNJECT GO PINO (NO VENTA)</t>
         </is>
       </c>
       <c r="C8" s="3" t="inlineStr"/>
       <c r="D8" s="3" t="inlineStr"/>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G8" s="4" t="n">
@@ -21004,7 +21004,7 @@
         <v>0</v>
       </c>
       <c r="L8" s="4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="M8" s="5" t="n">
         <v>0</v>
@@ -21013,19 +21013,19 @@
         <v>0</v>
       </c>
       <c r="O8" s="4" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="P8" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q8" s="4" t="n">
-        <v>4</v>
+        <v>92</v>
       </c>
       <c r="R8" s="4" t="n">
-        <v>4.44</v>
+        <v>102.22</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T8" s="9" t="inlineStr">
         <is>
@@ -21034,12 +21034,12 @@
       </c>
       <c r="U8" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 47.04€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V8" s="4" t="inlineStr">
         <is>
-          <t>Compra 27/05/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W8" s="4" t="inlineStr">
@@ -21051,24 +21051,24 @@
     <row r="9">
       <c r="A9" s="3" t="inlineStr">
         <is>
-          <t>3302210022</t>
+          <t>3501100016</t>
         </is>
       </c>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>COMPO FERTILIZANTE CICLAMENES 250ML</t>
+          <t>YNJECT CONECTOR PALMERA (NO VENTA)</t>
         </is>
       </c>
       <c r="C9" s="3" t="inlineStr"/>
       <c r="D9" s="3" t="inlineStr"/>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G9" s="4" t="n">
@@ -21087,7 +21087,7 @@
         <v>0</v>
       </c>
       <c r="L9" s="4" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="M9" s="5" t="n">
         <v>0</v>
@@ -21096,7 +21096,7 @@
         <v>0</v>
       </c>
       <c r="O9" s="4" t="n">
-        <v>12</v>
+        <v>80</v>
       </c>
       <c r="P9" s="4" t="n">
         <v>92</v>
@@ -21117,7 +21117,7 @@
       </c>
       <c r="U9" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 16.38€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 23.52€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V9" s="4" t="inlineStr">
@@ -21134,24 +21134,24 @@
     <row r="10">
       <c r="A10" s="3" t="inlineStr">
         <is>
-          <t>3301040006</t>
+          <t>3501100026</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO FERTILIZANTE AQUA DEPOT 1L</t>
+          <t>BIOFLOWER INSECTICIDA NATURAL NEEMEX 500ML</t>
         </is>
       </c>
       <c r="C10" s="3" t="inlineStr"/>
       <c r="D10" s="3" t="inlineStr"/>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G10" s="4" t="n">
@@ -21170,7 +21170,7 @@
         <v>0</v>
       </c>
       <c r="L10" s="4" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="M10" s="5" t="n">
         <v>0</v>
@@ -21179,19 +21179,19 @@
         <v>0</v>
       </c>
       <c r="O10" s="4" t="n">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="P10" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q10" s="4" t="n">
-        <v>78</v>
+        <v>16</v>
       </c>
       <c r="R10" s="4" t="n">
-        <v>86.67</v>
+        <v>17.78</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="T10" s="9" t="inlineStr">
         <is>
@@ -21200,12 +21200,12 @@
       </c>
       <c r="U10" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 10% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V10" s="4" t="inlineStr">
         <is>
-          <t>Compra 14/03/2025</t>
+          <t>Compra 15/05/2025</t>
         </is>
       </c>
       <c r="W10" s="4" t="inlineStr">
@@ -21217,24 +21217,24 @@
     <row r="11">
       <c r="A11" s="3" t="inlineStr">
         <is>
-          <t>3501100022</t>
+          <t>3302210005</t>
         </is>
       </c>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>YNJECT GO PALMERAS (NO VENTA)</t>
+          <t>CANABIUM VITACANN BIOESTIMULADOR 250ML</t>
         </is>
       </c>
       <c r="C11" s="3" t="inlineStr"/>
       <c r="D11" s="3" t="inlineStr"/>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G11" s="4" t="n">
@@ -21253,7 +21253,7 @@
         <v>0</v>
       </c>
       <c r="L11" s="4" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="M11" s="5" t="n">
         <v>0</v>
@@ -21262,19 +21262,19 @@
         <v>0</v>
       </c>
       <c r="O11" s="4" t="n">
-        <v>72</v>
+        <v>30</v>
       </c>
       <c r="P11" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q11" s="4" t="n">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="R11" s="4" t="n">
-        <v>102.22</v>
+        <v>36.67</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T11" s="9" t="inlineStr">
         <is>
@@ -21283,12 +21283,12 @@
       </c>
       <c r="U11" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 211.68€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V11" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/04/2025</t>
         </is>
       </c>
       <c r="W11" s="4" t="inlineStr">
@@ -21300,24 +21300,24 @@
     <row r="12">
       <c r="A12" s="3" t="inlineStr">
         <is>
-          <t>3302210016</t>
+          <t>3501100015</t>
         </is>
       </c>
       <c r="B12" s="3" t="inlineStr">
         <is>
-          <t>VIGORIZANTE FOLIAR CACTUS Y CRASAS 250ML</t>
+          <t>YNJECT CONECTOR PINO (NO VENTA)</t>
         </is>
       </c>
       <c r="C12" s="3" t="inlineStr"/>
       <c r="D12" s="3" t="inlineStr"/>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G12" s="4" t="n">
@@ -21336,7 +21336,7 @@
         <v>0</v>
       </c>
       <c r="L12" s="4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M12" s="5" t="n">
         <v>0</v>
@@ -21345,19 +21345,19 @@
         <v>0</v>
       </c>
       <c r="O12" s="4" t="n">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="P12" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q12" s="4" t="n">
-        <v>57</v>
+        <v>92</v>
       </c>
       <c r="R12" s="4" t="n">
-        <v>63.33</v>
+        <v>102.22</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T12" s="9" t="inlineStr">
         <is>
@@ -21366,12 +21366,12 @@
       </c>
       <c r="U12" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 5.88€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V12" s="4" t="inlineStr">
         <is>
-          <t>Compra 04/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W12" s="4" t="inlineStr">
@@ -21383,24 +21383,24 @@
     <row r="13">
       <c r="A13" s="3" t="inlineStr">
         <is>
-          <t>3701010006</t>
+          <t>3501010004</t>
         </is>
       </c>
       <c r="B13" s="3" t="inlineStr">
         <is>
-          <t>HERBICIDA DUO (FLUROXI + QUIZALOF)</t>
+          <t>TRIPLE ACCION 1000ML AFIDOR</t>
         </is>
       </c>
       <c r="C13" s="3" t="inlineStr"/>
       <c r="D13" s="3" t="inlineStr"/>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>37</t>
+          <t>35</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>HERBICIDAS</t>
+          <t>FITOSANITARIOS</t>
         </is>
       </c>
       <c r="G13" s="4" t="n">
@@ -21419,7 +21419,7 @@
         <v>0</v>
       </c>
       <c r="L13" s="4" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="M13" s="5" t="n">
         <v>0</v>
@@ -21428,19 +21428,19 @@
         <v>0</v>
       </c>
       <c r="O13" s="4" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="P13" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q13" s="4" t="n">
-        <v>92</v>
+        <v>33</v>
       </c>
       <c r="R13" s="4" t="n">
-        <v>102.22</v>
+        <v>36.67</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="T13" s="9" t="inlineStr">
         <is>
@@ -21449,12 +21449,12 @@
       </c>
       <c r="U13" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.75€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V13" s="4" t="inlineStr">
         <is>
-          <t>Stock inicial</t>
+          <t>Compra 28/04/2025</t>
         </is>
       </c>
       <c r="W13" s="4" t="inlineStr">
@@ -21466,24 +21466,24 @@
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
-          <t>3501100026</t>
+          <t>3302210008</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
         <is>
-          <t>BIOFLOWER INSECTICIDA NATURAL NEEMEX 500ML</t>
+          <t>FERTILIZANTE ORQUIDEAS 250ML</t>
         </is>
       </c>
       <c r="C14" s="3" t="inlineStr"/>
       <c r="D14" s="3" t="inlineStr"/>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G14" s="4" t="n">
@@ -21517,10 +21517,10 @@
         <v>92</v>
       </c>
       <c r="Q14" s="4" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="R14" s="4" t="n">
-        <v>17.78</v>
+        <v>4.44</v>
       </c>
       <c r="S14" s="5" t="n">
         <v>0</v>
@@ -21537,7 +21537,7 @@
       </c>
       <c r="V14" s="4" t="inlineStr">
         <is>
-          <t>Compra 15/05/2025</t>
+          <t>Compra 27/05/2025</t>
         </is>
       </c>
       <c r="W14" s="4" t="inlineStr">
@@ -21549,24 +21549,24 @@
     <row r="15">
       <c r="A15" s="3" t="inlineStr">
         <is>
-          <t>3502020004</t>
+          <t>3301080002</t>
         </is>
       </c>
       <c r="B15" s="3" t="inlineStr">
         <is>
-          <t>COMPO BIO FUNGICIDA STOP 750ML</t>
+          <t>COMPO REVIT ORQUIDEA MONODOSIS 5X30ML</t>
         </is>
       </c>
       <c r="C15" s="3" t="inlineStr"/>
       <c r="D15" s="3" t="inlineStr"/>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G15" s="4" t="n">
@@ -21632,24 +21632,24 @@
     <row r="16">
       <c r="A16" s="3" t="inlineStr">
         <is>
-          <t>3302210005</t>
+          <t>3701010006</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
         <is>
-          <t>CANABIUM VITACANN BIOESTIMULADOR 250ML</t>
+          <t>HERBICIDA DUO (FLUROXI + QUIZALOF)</t>
         </is>
       </c>
       <c r="C16" s="3" t="inlineStr"/>
       <c r="D16" s="3" t="inlineStr"/>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>33</t>
+          <t>37</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>ABONOS</t>
+          <t>HERBICIDAS</t>
         </is>
       </c>
       <c r="G16" s="4" t="n">
@@ -21668,7 +21668,7 @@
         <v>0</v>
       </c>
       <c r="L16" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="M16" s="5" t="n">
         <v>0</v>
@@ -21677,19 +21677,19 @@
         <v>0</v>
       </c>
       <c r="O16" s="4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
       <c r="P16" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q16" s="4" t="n">
-        <v>33</v>
+        <v>92</v>
       </c>
       <c r="R16" s="4" t="n">
-        <v>36.67</v>
+        <v>102.22</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="T16" s="9" t="inlineStr">
         <is>
@@ -21698,12 +21698,12 @@
       </c>
       <c r="U16" s="3" t="inlineStr">
         <is>
-          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 0% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 0.0€. Prioridad máxima.</t>
+          <t>LIQUIDACIÓN URGENTE: Aplicar descuento 20% inmediato. Eliminar del catálogo próxima temporada. Capital liberado: 71.75€. Prioridad máxima.</t>
         </is>
       </c>
       <c r="V16" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/04/2025</t>
+          <t>Stock inicial</t>
         </is>
       </c>
       <c r="W16" s="4" t="inlineStr">
@@ -21798,24 +21798,24 @@
     <row r="18">
       <c r="A18" s="3" t="inlineStr">
         <is>
-          <t>3501010004</t>
+          <t>3302210016</t>
         </is>
       </c>
       <c r="B18" s="3" t="inlineStr">
         <is>
-          <t>TRIPLE ACCION 1000ML AFIDOR</t>
+          <t>VIGORIZANTE FOLIAR CACTUS Y CRASAS 250ML</t>
         </is>
       </c>
       <c r="C18" s="3" t="inlineStr"/>
       <c r="D18" s="3" t="inlineStr"/>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>35</t>
+          <t>33</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>FITOSANITARIOS</t>
+          <t>ABONOS</t>
         </is>
       </c>
       <c r="G18" s="4" t="n">
@@ -21834,7 +21834,7 @@
         <v>0</v>
       </c>
       <c r="L18" s="4" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="M18" s="5" t="n">
         <v>0</v>
@@ -21843,16 +21843,16 @@
         <v>0</v>
       </c>
       <c r="O18" s="4" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P18" s="4" t="n">
         <v>92</v>
       </c>
       <c r="Q18" s="4" t="n">
-        <v>33</v>
+        <v>57</v>
       </c>
       <c r="R18" s="4" t="n">
-        <v>36.67</v>
+        <v>63.33</v>
       </c>
       <c r="S18" s="5" t="n">
         <v>0</v>
@@ -21869,7 +21869,7 @@
       </c>
       <c r="V18" s="4" t="inlineStr">
         <is>
-          <t>Compra 28/04/2025</t>
+          <t>Compra 04/04/2025</t>
         </is>
       </c>
       <c r="W18" s="4" t="inlineStr">
